--- a/svmx/test_lab/test_cases/analytics/an_excleData/vinaya_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/vinaya_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Account</t>
   </si>
@@ -104,22 +104,7 @@
     <t>user_meghana</t>
   </si>
   <si>
-    <t>001q000000lHopgAAC</t>
-  </si>
-  <si>
-    <t>001q000000lHopqAAC</t>
-  </si>
-  <si>
-    <t>001q000000lHoq0AAC</t>
-  </si>
-  <si>
-    <t>001q000000lHoq5AAC</t>
-  </si>
-  <si>
-    <t>01tq0000001ku2cAAA</t>
-  </si>
-  <si>
-    <t>01tq0000001ku2hAAA</t>
+    <t>001q000000lHp6IAAS</t>
   </si>
 </sst>
 </file>
@@ -483,7 +468,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,30 +555,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/vinaya_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/vinaya_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/analytics/an_excleData/"/>
     </mc:Choice>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Account</t>
   </si>
@@ -86,56 +86,71 @@
     <t>PreferredEndDate</t>
   </si>
   <si>
-    <t>GuranteedUptime</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>DownTime</t>
-  </si>
-  <si>
-    <t>UptimeValue</t>
-  </si>
-  <si>
-    <t>user_meghana</t>
-  </si>
-  <si>
-    <t>001q000000lHp6IAAS</t>
+    <t>ClosedOn1</t>
+  </si>
+  <si>
+    <t>InsertServiceRequest1</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>closedon</t>
+  </si>
+  <si>
+    <t>WDStartDate1</t>
+  </si>
+  <si>
+    <t>WDEndDate1</t>
+  </si>
+  <si>
+    <t>001q000000lHv2ZAAS</t>
+  </si>
+  <si>
+    <t>001q000000lHv2eAAC</t>
+  </si>
+  <si>
+    <t>01tq0000001kvehAAA</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zA1KEAU</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zA1PEAU</t>
+  </si>
+  <si>
+    <t>a0Nq0000003Pg04EAC</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktWOEAY</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>System.Now()+0.25</t>
+  </si>
+  <si>
+    <t>System.Now()</t>
+  </si>
+  <si>
+    <t>System.Now()+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Monaco"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3933FF"/>
-      <name val="Monaco"/>
     </font>
     <font>
       <u/>
@@ -171,25 +186,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,20 +489,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,69 +523,124 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
